--- a/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A42F78E-C387-40F4-915C-3A521FDFF8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60503C62-EB74-40B5-8E2E-F5DD734C8359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -88,30 +88,18 @@
     <t>Executed By</t>
   </si>
   <si>
-    <t>Hypothesis Condition</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
     <t>General_data.csv, Employee_Survey_Data.csv, Manager_Survey_data.csv</t>
   </si>
   <si>
-    <t>Hypothesis condition has two parameter 0 or 1</t>
-  </si>
-  <si>
     <t>Cleaning and preparation of data</t>
   </si>
   <si>
-    <t>1.To check and prepare the data        2.To write python codes for Hypothesis condition</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/datasets/vjchoudhary7/hr-analytics-case-study               General_data.csv, Employee_Survey_Data.csv, Manager_Survey_data.csv</t>
   </si>
   <si>
-    <t>Hypothesis value for each parameter either 0 or 1</t>
-  </si>
-  <si>
     <t>Working as expected</t>
   </si>
   <si>
@@ -127,12 +115,6 @@
     <t>nul</t>
   </si>
   <si>
-    <t>Train Test Split</t>
-  </si>
-  <si>
-    <t>Each parameter of general data survey is made as parameter for test split</t>
-  </si>
-  <si>
     <t>1.To test each data for test split            2.We need to write python code for each test split</t>
   </si>
   <si>
@@ -148,24 +130,12 @@
     <t>The test case is passed</t>
   </si>
   <si>
-    <t>Hyper Parameter Testing</t>
-  </si>
-  <si>
-    <t>checking the condition for developing model</t>
-  </si>
-  <si>
     <t>1.To prepare and clean the data and 2.To write python codes for each parameters</t>
   </si>
   <si>
     <t>The should be passed as package</t>
   </si>
   <si>
-    <t>Confusion Matrix</t>
-  </si>
-  <si>
-    <t>Overall necessay prediction can be made</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.To prepare the data                               2. To write python code for each parameter </t>
   </si>
   <si>
@@ -188,24 +158,6 @@
   </si>
   <si>
     <t>The output is seen as bar graph</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>Outcome of the Model</t>
-  </si>
-  <si>
-    <t>1. To find the required data for Regression Modelling                                2. To write python coding</t>
-  </si>
-  <si>
-    <t>SVM Model</t>
-  </si>
-  <si>
-    <t>Modelling test</t>
-  </si>
-  <si>
-    <t>1. From the Regression Modelling , the resulting parameter will be used for SVM modelling.                               2.To write python coding</t>
   </si>
   <si>
     <t>Test Scenarios</t>
@@ -251,6 +203,40 @@
 2)Dini Shiba S
 3)Sharwin Xavier R
 4)Murugalakshmi V</t>
+  </si>
+  <si>
+    <t>CSV File upload</t>
+  </si>
+  <si>
+    <t>Frontend Layout and button for uploading the CSV File</t>
+  </si>
+  <si>
+    <t>Upload Successful/unsuccesful</t>
+  </si>
+  <si>
+    <t>Uploads and Reads successfully</t>
+  </si>
+  <si>
+    <t>IBM Cognos Dashboard Embedment</t>
+  </si>
+  <si>
+    <t>Verifying whether the dashboard of cognos analytics shows up in the web application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.To check and prepare the data        2.To write python codes for uploading the csv file
+</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Checking whether the interaction graph between any two components we select is working as expected</t>
+  </si>
+  <si>
+    <t>Correlations</t>
+  </si>
+  <si>
+    <t>Correlations between all the available fields in 5 different methods</t>
   </si>
 </sst>
 </file>
@@ -595,7 +581,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -650,7 +636,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -705,7 +691,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -760,7 +746,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -815,7 +801,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -870,7 +856,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -925,7 +911,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -980,7 +966,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1035,7 +1021,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1090,7 +1076,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1145,7 +1131,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1200,7 +1186,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1255,7 +1241,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1310,7 +1296,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1365,7 +1351,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1420,7 +1406,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1475,7 +1461,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1530,7 +1516,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1585,7 +1571,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1640,7 +1626,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1695,7 +1681,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1750,7 +1736,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2125,11 +2111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2180,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
@@ -2277,319 +2263,237 @@
     </row>
     <row r="6" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="L6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="4"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="4"/>
-      <c r="H14" s="8"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H15" s="5"/>
@@ -2635,12 +2539,6 @@
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2671,7 +2569,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2687,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2695,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2703,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2711,12 +2609,12 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2724,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2732,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2740,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2748,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2756,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60503C62-EB74-40B5-8E2E-F5DD734C8359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5CC6F-3F7E-4287-97AF-C27EA6386CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
